--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_8_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_8_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>2.037268131971359e-10</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>2.037268131971359e-10</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81524.33925530316</v>
+        <v>5509870.527589659</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81524.33925530316</v>
+        <v>5509870.527589659</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418106438.706187</v>
+        <v>51792383.40063112</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14702.7074390866</v>
+        <v>1174598.984932048</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28601.1402629249</v>
+        <v>2213295.915109675</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42516.18928889785</v>
+        <v>3251992.845287303</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>56728.06436570712</v>
+        <v>4288716.81941344</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>70939.93944251633</v>
+        <v>5325440.793539579</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>85151.81451932558</v>
+        <v>6362164.767665716</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99363.68959613481</v>
+        <v>7398888.741791849</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>113575.5646729441</v>
+        <v>8435612.715917982</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>127773.7283372078</v>
+        <v>9473268.579092437</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>141971.8920014715</v>
+        <v>10510924.44226689</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>156170.0556657352</v>
+        <v>11548580.30544134</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>170368.1408190805</v>
+        <v>12586236.1686158</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>184566.3044833443</v>
+        <v>13623892.03179027</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>199400.6016879854</v>
+        <v>14597499.21297562</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>214234.898892627</v>
+        <v>15571106.39416099</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>177</v>
@@ -27052,13 +27052,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>178</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
